--- a/P07/Scrum_Sprint_2.xlsx
+++ b/P07/Scrum_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Documents/GitHub/cse1325/P07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02F6092-8A75-2E4B-AF20-2517F22F13FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A303646C-0299-7E49-A6D4-8A1C14F9567B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16980" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="176">
   <si>
     <t>Product Name:</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>Completed Day 2</t>
+  </si>
+  <si>
+    <t>Completed Day 5</t>
   </si>
 </sst>
 </file>
@@ -2014,19 +2017,19 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-5</c:v>
@@ -3756,8 +3759,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8132,8 +8135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8271,11 +8274,11 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -8289,7 +8292,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -8307,11 +8310,11 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -8325,11 +8328,11 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -8343,7 +8346,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -8365,7 +8368,7 @@
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -8463,7 +8466,7 @@
       </c>
       <c r="D20" s="39"/>
       <c r="E20" s="37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F20" s="38"/>
     </row>
@@ -8479,7 +8482,7 @@
       </c>
       <c r="D21" s="39"/>
       <c r="E21" s="37" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F21" s="38"/>
     </row>

--- a/P07/Scrum_Sprint_2.xlsx
+++ b/P07/Scrum_Sprint_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Documents/GitHub/cse1325/P07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A303646C-0299-7E49-A6D4-8A1C14F9567B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F405E5-4BC1-A64F-930E-2932C8040222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3759,8 +3759,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/P07/Scrum_Sprint_2.xlsx
+++ b/P07/Scrum_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Documents/GitHub/cse1325/P07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F405E5-4BC1-A64F-930E-2932C8040222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9833EA58-12A8-464A-82B3-927163C0E107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16980" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="175">
   <si>
     <t>Product Name:</t>
   </si>
@@ -567,9 +567,6 @@
   </si>
   <si>
     <t>Completed Day 2</t>
-  </si>
-  <si>
-    <t>Completed Day 5</t>
   </si>
 </sst>
 </file>
@@ -2026,10 +2023,10 @@
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-5</c:v>
@@ -3759,7 +3756,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
@@ -8135,8 +8132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8328,11 +8325,11 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -8346,7 +8343,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -8368,7 +8365,7 @@
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -8466,7 +8463,7 @@
       </c>
       <c r="D20" s="39"/>
       <c r="E20" s="37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F20" s="38"/>
     </row>
